--- a/data/trans_orig/P14A08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A08-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D60BA85-645F-4857-A57D-3AC6E047A6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63E650A-EE53-402F-9615-8F51FF072E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD2BCD78-37CD-4C11-8176-B5A03AE92575}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{154D02BE-EAF5-4640-A594-AE187BAC573D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="170">
   <si>
     <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2012 (Tasa respuesta: 1,61%)</t>
   </si>
@@ -117,7 +117,7 @@
     <t>86,31%</t>
   </si>
   <si>
-    <t>42,63%</t>
+    <t>42,43%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -126,13 +126,13 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>63,2%</t>
+    <t>63,3%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>57,37%</t>
+    <t>57,57%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -141,7 +141,7 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>36,8%</t>
+    <t>36,7%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -150,49 +150,55 @@
     <t>77,81%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>54,48%</t>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>45,52%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -216,25 +222,25 @@
     <t>91,89%</t>
   </si>
   <si>
-    <t>62,48%</t>
+    <t>64,26%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>71,86%</t>
+    <t>71,28%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>37,52%</t>
+    <t>35,74%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>28,14%</t>
+    <t>28,72%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -258,85 +264,85 @@
     <t>90,94%</t>
   </si>
   <si>
-    <t>55,78%</t>
+    <t>59,26%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>40,92%</t>
+    <t>23,44%</t>
   </si>
   <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>62,13%</t>
+    <t>63,8%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>44,22%</t>
+    <t>40,74%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>59,08%</t>
+    <t>76,56%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -348,7 +354,7 @@
     <t>68,66%</t>
   </si>
   <si>
-    <t>21,73%</t>
+    <t>16,62%</t>
   </si>
   <si>
     <t>49,3%</t>
@@ -357,16 +363,16 @@
     <t>64,83%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>78,27%</t>
+    <t>83,38%</t>
   </si>
   <si>
     <t>50,7%</t>
@@ -375,34 +381,34 @@
     <t>35,17%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>51,44%</t>
+    <t>52,59%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>72,56%</t>
+    <t>68,99%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>48,56%</t>
+    <t>47,41%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>27,44%</t>
+    <t>31,01%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -432,43 +438,43 @@
     <t>92,14%</t>
   </si>
   <si>
-    <t>64,76%</t>
+    <t>63,46%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>54,82%</t>
+    <t>50,82%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>72,24%</t>
+    <t>69,33%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>35,24%</t>
+    <t>36,54%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>45,18%</t>
+    <t>49,18%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>27,76%</t>
+    <t>30,67%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>58,35%</t>
+    <t>65,42%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -477,13 +483,13 @@
     <t>95,49%</t>
   </si>
   <si>
-    <t>78,01%</t>
+    <t>77,24%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>34,58%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -492,55 +498,55 @@
     <t>4,51%</t>
   </si>
   <si>
-    <t>21,99%</t>
+    <t>22,76%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>86,67%</t>
+    <t>86,97%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>13,33%</t>
+    <t>13,03%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
   </si>
 </sst>
 </file>
@@ -952,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0E05A4-6393-4329-995E-29A6DB1B73D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F4A0A8-0D2D-4244-AAFE-244988ED6DEA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1544,7 +1550,7 @@
         <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M13" s="7">
         <v>20</v>
@@ -1553,13 +1559,13 @@
         <v>22542</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,13 +1580,13 @@
         <v>3216</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1589,13 +1595,13 @@
         <v>2938</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1604,13 +1610,13 @@
         <v>6154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,7 +1672,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1681,7 +1687,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -1696,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -1735,7 +1741,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1750,7 +1756,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -1821,7 +1827,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1833,10 +1839,10 @@
         <v>11587</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -1851,7 +1857,7 @@
         <v>14</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -1863,10 +1869,10 @@
         <v>14548</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -1884,13 +1890,13 @@
         <v>1023</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1905,7 +1911,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -1914,13 +1920,13 @@
         <v>1023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1991,7 +1997,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -2006,7 +2012,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -2021,7 +2027,7 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -2045,7 +2051,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2060,7 +2066,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -2075,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,7 +2137,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2143,10 +2149,10 @@
         <v>11031</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -2158,10 +2164,10 @@
         <v>4384</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -2173,10 +2179,10 @@
         <v>15414</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -2194,13 +2200,13 @@
         <v>1098</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2209,13 +2215,13 @@
         <v>1024</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2224,13 +2230,13 @@
         <v>2123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,10 +2307,10 @@
         <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H28" s="7">
         <v>35</v>
@@ -2313,13 +2319,13 @@
         <v>37522</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
@@ -2328,13 +2334,13 @@
         <v>104811</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,10 +2358,10 @@
         <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -2364,13 +2370,13 @@
         <v>3962</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -2379,13 +2385,13 @@
         <v>10327</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2447,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2465,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4948CDB-2B5C-49FA-8D41-4F6A7C777A2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF828F9-EFB5-480E-AF14-524A825AE2CA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2482,7 +2488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2589,10 +2595,10 @@
         <v>5000</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -2604,7 +2610,7 @@
         <v>885</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>19</v>
@@ -2619,13 +2625,13 @@
         <v>5886</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,13 +2646,13 @@
         <v>2283</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -2655,7 +2661,7 @@
         <v>910</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>19</v>
@@ -2670,13 +2676,13 @@
         <v>3193</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,10 +2750,10 @@
         <v>11131</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -2762,7 +2768,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -2774,10 +2780,10 @@
         <v>18855</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2795,13 +2801,13 @@
         <v>2152</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2816,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2825,13 +2831,13 @@
         <v>2152</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,7 +2908,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -2917,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2932,7 +2938,7 @@
         <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2956,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2971,7 +2977,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2986,7 +2992,7 @@
         <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,7 +3063,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3072,7 +3078,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3111,7 +3117,7 @@
         <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3126,7 +3132,7 @@
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3197,7 +3203,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3212,7 +3218,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3227,7 +3233,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3242,7 +3248,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3266,7 +3272,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3281,7 +3287,7 @@
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3296,7 +3302,7 @@
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,7 +3358,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3397,7 +3403,7 @@
         <v>14</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>16</v>
@@ -3451,7 +3457,7 @@
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,7 +3513,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3519,10 +3525,10 @@
         <v>10517</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>14</v>
@@ -3534,10 +3540,10 @@
         <v>9247</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -3549,10 +3555,10 @@
         <v>19764</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>14</v>
@@ -3570,13 +3576,13 @@
         <v>898</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -3585,13 +3591,13 @@
         <v>1027</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -3600,13 +3606,13 @@
         <v>1925</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,7 +3668,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3674,10 +3680,10 @@
         <v>11087</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3692,7 +3698,7 @@
         <v>14</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>16</v>
@@ -3704,10 +3710,10 @@
         <v>21731</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3725,13 +3731,13 @@
         <v>1026</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3746,7 +3752,7 @@
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3755,13 +3761,13 @@
         <v>1026</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3835,13 @@
         <v>60122</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>39</v>
@@ -3844,10 +3850,10 @@
         <v>43581</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>14</v>
@@ -3856,16 +3862,16 @@
         <v>99</v>
       </c>
       <c r="N28" s="7">
-        <v>103703</v>
+        <v>103704</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3886,13 @@
         <v>6358</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3895,13 +3901,13 @@
         <v>1938</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -3910,13 +3916,13 @@
         <v>8296</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,7 +3964,7 @@
         <v>107</v>
       </c>
       <c r="N30" s="7">
-        <v>111999</v>
+        <v>112000</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>16</v>
@@ -3972,7 +3978,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A08-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A08-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63E650A-EE53-402F-9615-8F51FF072E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87AD2C21-2A0F-4869-978A-838DE673CF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{154D02BE-EAF5-4640-A594-AE187BAC573D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F40BF4E-2308-4107-BEB6-4A21A2964ACD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -117,7 +117,7 @@
     <t>86,31%</t>
   </si>
   <si>
-    <t>42,43%</t>
+    <t>42,25%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -126,13 +126,13 @@
     <t>91,26%</t>
   </si>
   <si>
-    <t>63,3%</t>
+    <t>63,94%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>57,57%</t>
+    <t>57,75%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -141,7 +141,7 @@
     <t>8,74%</t>
   </si>
   <si>
-    <t>36,7%</t>
+    <t>36,06%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -150,55 +150,55 @@
     <t>77,81%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
   </si>
   <si>
     <t>22,19%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -222,25 +222,25 @@
     <t>91,89%</t>
   </si>
   <si>
-    <t>64,26%</t>
+    <t>64,1%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>71,28%</t>
+    <t>71,4%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>35,74%</t>
+    <t>35,9%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>28,72%</t>
+    <t>28,6%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -264,97 +264,97 @@
     <t>90,94%</t>
   </si>
   <si>
-    <t>59,26%</t>
+    <t>56,75%</t>
   </si>
   <si>
     <t>81,06%</t>
   </si>
   <si>
-    <t>23,44%</t>
+    <t>34,67%</t>
   </si>
   <si>
     <t>87,9%</t>
   </si>
   <si>
-    <t>63,8%</t>
+    <t>60,99%</t>
   </si>
   <si>
     <t>9,06%</t>
   </si>
   <si>
-    <t>40,74%</t>
+    <t>43,25%</t>
   </si>
   <si>
     <t>18,94%</t>
   </si>
   <si>
-    <t>76,56%</t>
+    <t>65,33%</t>
   </si>
   <si>
     <t>12,1%</t>
   </si>
   <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>91,03%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
   </si>
   <si>
     <t>8,97%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2015 (Tasa respuesta: 1,63%)</t>
+    <t>Población que recibe medicación o terapia por enfermedad crónica de pulmón en 2016 (Tasa respuesta: 1,63%)</t>
   </si>
   <si>
     <t>68,66%</t>
   </si>
   <si>
-    <t>16,62%</t>
+    <t>23,85%</t>
   </si>
   <si>
     <t>49,3%</t>
@@ -363,16 +363,16 @@
     <t>64,83%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>83,38%</t>
+    <t>76,15%</t>
   </si>
   <si>
     <t>50,7%</t>
@@ -381,34 +381,34 @@
     <t>35,17%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>52,59%</t>
+    <t>52,79%</t>
   </si>
   <si>
     <t>89,75%</t>
   </si>
   <si>
-    <t>68,99%</t>
+    <t>69,01%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>47,41%</t>
+    <t>47,21%</t>
   </si>
   <si>
     <t>10,25%</t>
   </si>
   <si>
-    <t>31,01%</t>
+    <t>30,99%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -438,43 +438,43 @@
     <t>92,14%</t>
   </si>
   <si>
-    <t>63,46%</t>
+    <t>63,42%</t>
   </si>
   <si>
     <t>90,0%</t>
   </si>
   <si>
-    <t>50,82%</t>
+    <t>55,66%</t>
   </si>
   <si>
     <t>91,12%</t>
   </si>
   <si>
-    <t>69,33%</t>
+    <t>71,96%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>36,54%</t>
+    <t>36,58%</t>
   </si>
   <si>
     <t>10,0%</t>
   </si>
   <si>
-    <t>49,18%</t>
+    <t>44,34%</t>
   </si>
   <si>
     <t>8,88%</t>
   </si>
   <si>
-    <t>30,67%</t>
+    <t>28,04%</t>
   </si>
   <si>
     <t>91,53%</t>
   </si>
   <si>
-    <t>65,42%</t>
+    <t>65,49%</t>
   </si>
   <si>
     <t>81,26%</t>
@@ -483,13 +483,13 @@
     <t>95,49%</t>
   </si>
   <si>
-    <t>77,24%</t>
+    <t>76,04%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
-    <t>34,58%</t>
+    <t>34,51%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -498,55 +498,55 @@
     <t>4,51%</t>
   </si>
   <si>
-    <t>22,76%</t>
+    <t>23,96%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>86,97%</t>
+    <t>86,52%</t>
   </si>
   <si>
     <t>92,59%</t>
   </si>
   <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>13,03%</t>
+    <t>13,48%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F4A0A8-0D2D-4244-AAFE-244988ED6DEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE4CB45-99C9-47D3-A750-0B12B54E909E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2471,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF828F9-EFB5-480E-AF14-524A825AE2CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5163E2FD-B518-459C-9E45-E573F35C26E5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3862,7 +3862,7 @@
         <v>99</v>
       </c>
       <c r="N28" s="7">
-        <v>103704</v>
+        <v>103703</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>159</v>
@@ -3964,7 +3964,7 @@
         <v>107</v>
       </c>
       <c r="N30" s="7">
-        <v>112000</v>
+        <v>111999</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>16</v>
